--- a/Player_Data/Meteor_Player_Data.xlsx
+++ b/Player_Data/Meteor_Player_Data.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(8) 67%</t>
+          <t xml:space="preserve"> 67</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -536,10 +536,8 @@
       <c r="F2" t="n">
         <v>148</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.7</v>
       </c>
       <c r="H2" t="n">
         <v>0.76</v>
@@ -572,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(3) 25%</t>
+          <t xml:space="preserve"> 25</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -590,10 +588,8 @@
       <c r="F3" t="n">
         <v>119.7</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.63</v>
       </c>
       <c r="H3" t="n">
         <v>0.66</v>
@@ -626,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(1) 8%</t>
+          <t xml:space="preserve"> 8</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -644,10 +640,8 @@
       <c r="F4" t="n">
         <v>146.3</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>

--- a/Player_Data/Meteor_Player_Data.xlsx
+++ b/Player_Data/Meteor_Player_Data.xlsx
@@ -518,32 +518,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67</t>
+          <t xml:space="preserve"> 69</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="D2" t="n">
-        <v>211</v>
+        <v>214.9</v>
       </c>
       <c r="E2" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="F2" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="H2" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J2" t="n">
         <v>0.11</v>
@@ -552,25 +552,25 @@
         <v>0.08</v>
       </c>
       <c r="L2" t="n">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25</t>
+          <t xml:space="preserve"> 23</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/Player_Data/Meteor_Player_Data.xlsx
+++ b/Player_Data/Meteor_Player_Data.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69</t>
+          <t xml:space="preserve"> 67</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
         <v>1.09</v>
       </c>
       <c r="D2" t="n">
-        <v>214.9</v>
+        <v>216</v>
       </c>
       <c r="E2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F2" t="n">
-        <v>149.5</v>
+        <v>149.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="H2" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I2" t="n">
         <v>0.16</v>
       </c>
       <c r="J2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="n">
         <v>0.08</v>
       </c>
       <c r="L2" t="n">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23</t>
+          <t xml:space="preserve"> 27</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="D3" t="n">
-        <v>174</v>
+        <v>179.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F3" t="n">
-        <v>119.7</v>
+        <v>121.5</v>
       </c>
       <c r="G3" t="n">
         <v>0.63</v>
       </c>
       <c r="H3" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L3" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8</t>
+          <t xml:space="preserve"> 7</t>
         </is>
       </c>
       <c r="B4" t="n">
